--- a/webapp/static/files/import_saler-sample.xlsx
+++ b/webapp/static/files/import_saler-sample.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>手机号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,46 @@
   </si>
   <si>
     <t>单元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发展人编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区分ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1020304050,1122334455</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XX营业厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填(10位数字，逗号隔开)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选填</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填(11位数字)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必填(根据提示)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -34,7 +74,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,6 +96,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -82,11 +130,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -383,32 +440,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="9.75" customWidth="1"/>
-    <col min="6" max="6" width="8.125" customWidth="1"/>
-    <col min="7" max="7" width="9.375" customWidth="1"/>
-    <col min="8" max="8" width="9.25" customWidth="1"/>
+    <col min="1" max="1" width="18.375" customWidth="1"/>
+    <col min="2" max="2" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="28.875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="8" max="8" width="8.125" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:5" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>18620000000</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
